--- a/data/trans_camb/P19C03-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-25.94186629147469</v>
+        <v>-25.56343249941673</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-17.22191675322372</v>
+        <v>-17.54051121226521</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-27.15452476697912</v>
+        <v>-27.12461902626445</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-25.03331221038356</v>
+        <v>-24.34468217009006</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-28.04759311213852</v>
+        <v>-27.62127549090576</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-24.36335054281095</v>
+        <v>-24.86657609511124</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-22.63724398651985</v>
+        <v>-22.20759856696044</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-20.24926092760086</v>
+        <v>-20.03461126096053</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-23.56944882106738</v>
+        <v>-23.25790497324013</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-9.441933057496927</v>
+        <v>-9.268200694446008</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2413730878183566</v>
+        <v>0.2285087851795325</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-10.49392534803443</v>
+        <v>-11.10121170704189</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-5.624443523235541</v>
+        <v>-5.638716157225875</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-10.11915137447901</v>
+        <v>-9.625500855544331</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-7.655020638387747</v>
+        <v>-8.584021837283103</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-9.896853696802973</v>
+        <v>-9.442227237967767</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-7.577071909035625</v>
+        <v>-7.270029188742154</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-12.12162103509278</v>
+        <v>-11.36671032318842</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6257767879007152</v>
+        <v>-0.630742863634205</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4259132967593892</v>
+        <v>-0.4258357604710885</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6680593988878972</v>
+        <v>-0.6544033814684694</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5395671777409619</v>
+        <v>-0.5241004831670474</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6100887296729983</v>
+        <v>-0.5956375246213225</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5275124540690643</v>
+        <v>-0.5323930277654466</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5299413776458579</v>
+        <v>-0.5316083853006786</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4792319004347845</v>
+        <v>-0.4742226918671192</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5649277049341794</v>
+        <v>-0.5570510601761079</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.3039518110127374</v>
+        <v>-0.2922105398544583</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.01292547741482826</v>
+        <v>0.007528187321845734</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.3408769117910842</v>
+        <v>-0.3490054030178491</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1555633382051803</v>
+        <v>-0.1544153401266363</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2785681108871355</v>
+        <v>-0.2716806537942111</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2238590839296368</v>
+        <v>-0.2325747896667673</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2763082261855602</v>
+        <v>-0.2726700050852586</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2132849487354447</v>
+        <v>-0.202510659193984</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.3489033339835977</v>
+        <v>-0.3348586020673328</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-4.241999901603361</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-8.637326155375572</v>
+        <v>-8.637326155375579</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.522086086084484</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.387840054966064</v>
+        <v>-10.15881963480637</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.47630066500821</v>
+        <v>-8.419032532013444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.78910623522165</v>
+        <v>-14.0021021585546</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.836221588577179</v>
+        <v>-6.042353172806187</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.56895475638712</v>
+        <v>-10.73297121181948</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-14.08292911396988</v>
+        <v>-14.2738052668936</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.73374534329283</v>
+        <v>-5.973651523479938</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-7.123453188640956</v>
+        <v>-7.481471387282842</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-11.77777043773864</v>
+        <v>-11.63285813547731</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.736249914844927</v>
+        <v>4.201564553192464</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.834909864445765</v>
+        <v>5.034249363041305</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2651910653808909</v>
+        <v>1.397787050497032</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.616602584847987</v>
+        <v>6.329838506212345</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.644874523535864</v>
+        <v>1.880483115954833</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-3.187876718205858</v>
+        <v>-3.303118851395594</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.253767251148175</v>
+        <v>3.187539750461842</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.280289581903877</v>
+        <v>2.081807450397968</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.99618577754009</v>
+        <v>-3.303024792354033</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.1373137609908111</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2795907041041273</v>
+        <v>-0.2795907041041276</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.04724182155904216</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2619314227019328</v>
+        <v>-0.2682418905290992</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2116900999887031</v>
+        <v>-0.2244895324981774</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3697384114039466</v>
+        <v>-0.373019524187357</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1752060642813804</v>
+        <v>-0.1782683040414879</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3147271969861917</v>
+        <v>-0.3137965907903346</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4109408125984935</v>
+        <v>-0.4149675528486875</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1669066359724838</v>
+        <v>-0.1763815596537636</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2115577969277535</v>
+        <v>-0.2244469864825616</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3447138519513359</v>
+        <v>-0.3402827938017536</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1295260696334565</v>
+        <v>0.1442013148231559</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1990830486195022</v>
+        <v>0.16731927152462</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.01862164285561659</v>
+        <v>0.04917755296496878</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2345883299466159</v>
+        <v>0.2227058384801797</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0576726290287381</v>
+        <v>0.06846241307861277</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1068278821557108</v>
+        <v>-0.1156069043028819</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1063580384029906</v>
+        <v>0.1066584261218364</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.07525631361045626</v>
+        <v>0.06892461092513612</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1001257235309174</v>
+        <v>-0.1117078834933822</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.054805206642266</v>
+        <v>-7.084029763838847</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.89843150400222</v>
+        <v>-11.06338756543542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-20.62571308694139</v>
+        <v>-20.41673882683567</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.93094329084349</v>
+        <v>-10.77935646437753</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-13.0113526695233</v>
+        <v>-13.09581791086257</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-22.02130933195062</v>
+        <v>-21.43040463111775</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-6.671030848405652</v>
+        <v>-6.278634538039145</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.614535715833425</v>
+        <v>-10.4303110679762</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-19.42782654730391</v>
+        <v>-19.48795062603036</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.704362128168636</v>
+        <v>9.062640068526081</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.063904135563845</v>
+        <v>4.137079059183621</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-5.311468211413193</v>
+        <v>-5.83557712883811</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.202456008092326</v>
+        <v>4.045476160287244</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9644743304254159</v>
+        <v>1.170371091151452</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-9.305254159782935</v>
+        <v>-9.022376200778057</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.01921811599329</v>
+        <v>4.157202893495149</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6027872596431529</v>
+        <v>0.3227178357544683</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-10.05052450056601</v>
+        <v>-9.862412777159731</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1952928113329888</v>
+        <v>-0.1987073444949452</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3293758881000536</v>
+        <v>-0.3111113527482618</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5779492410387372</v>
+        <v>-0.5724054976683109</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3274404135854471</v>
+        <v>-0.3226841495203295</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3958186291536057</v>
+        <v>-0.3838106013705646</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6397165912732996</v>
+        <v>-0.6248543837968922</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2018817763695576</v>
+        <v>-0.1872461408836085</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2916136652626974</v>
+        <v>-0.3099231753664821</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5719142657985125</v>
+        <v>-0.5731381121546312</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.364263414120334</v>
+        <v>0.337078895685446</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.160141474279059</v>
+        <v>0.1540111381704795</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1959020063578073</v>
+        <v>-0.1946021946756479</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1652861961786525</v>
+        <v>0.1553689015370733</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03631507009625393</v>
+        <v>0.04908792388807981</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3561639015761326</v>
+        <v>-0.3404097062508692</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1438594269780426</v>
+        <v>0.1580924582311011</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.02236334951852761</v>
+        <v>0.01334735524998826</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.3545095079349345</v>
+        <v>-0.3546188098380096</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-13.37731039822439</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-11.9666154056554</v>
+        <v>-11.96661540565541</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-6.841307487831777</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.811002203314346</v>
+        <v>-6.32548470602095</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-20.77192810187696</v>
+        <v>-20.8530427370349</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-18.74732830436282</v>
+        <v>-20.11832763070965</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-13.79194264338094</v>
+        <v>-14.33674776788682</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-13.87308345900697</v>
+        <v>-15.19273081403209</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-20.103641583911</v>
+        <v>-19.43996136976612</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-7.771267878956245</v>
+        <v>-7.54559516316024</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-15.72707395662047</v>
+        <v>-15.51577057365372</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-17.63154632947564</v>
+        <v>-17.50931273921554</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.609194909489338</v>
+        <v>10.63342306003112</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-6.711158196485127</v>
+        <v>-6.371160265169966</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.077727403301479</v>
+        <v>-3.125768932288896</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4076829241680956</v>
+        <v>-0.2007105896385965</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0651092943943764</v>
+        <v>-1.089683095162968</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-6.609351377389365</v>
+        <v>-6.242033082678039</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.964902551265161</v>
+        <v>2.450824184950417</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-5.583739206915575</v>
+        <v>-5.462832282682131</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-7.093941049675536</v>
+        <v>-7.389166426612666</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.2414807705281858</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.4037866144850717</v>
+        <v>-0.4037866144850718</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.07710394470205954</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1587587330747647</v>
+        <v>-0.1774336384906927</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5756287841373562</v>
+        <v>-0.584345806123414</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5491529663188947</v>
+        <v>-0.5778896720914956</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3897618408732713</v>
+        <v>-0.3924532712425623</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3913269190804934</v>
+        <v>-0.4248415565556443</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5567173505221481</v>
+        <v>-0.5431182648404836</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2253358534041859</v>
+        <v>-0.2212624286051262</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4573839552706347</v>
+        <v>-0.4427811313928042</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.51781103462161</v>
+        <v>-0.5055482023953127</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3556493161702988</v>
+        <v>0.4089500893716112</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2262234568817788</v>
+        <v>-0.2269545212476099</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1053618829191842</v>
+        <v>-0.1214295897146915</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.01242329923694431</v>
+        <v>0.004257696986380932</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.003716589893808104</v>
+        <v>-0.03973351069774021</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2314161430409702</v>
+        <v>-0.2204424174756221</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1039345460938456</v>
+        <v>0.0847403713186758</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1838215293167702</v>
+        <v>-0.1875857339147363</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2499119345375987</v>
+        <v>-0.2467293990124559</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-3.849748921858187</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-6.010196416438621</v>
+        <v>-6.010196416438624</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.372748769915706</v>
@@ -1520,7 +1520,7 @@
         <v>-4.205051513743505</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-6.872567366372323</v>
+        <v>-6.872567366372328</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.241400637504968</v>
+        <v>-8.27181008611513</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-15.85452453480554</v>
+        <v>-15.49936444407603</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-15.81111651867432</v>
+        <v>-16.0736874836841</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.926892757244374</v>
+        <v>-8.149771449328826</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-12.93420466868319</v>
+        <v>-12.69525244048274</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-13.48484679652804</v>
+        <v>-14.19374716835399</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.267860144410181</v>
+        <v>-4.792667452565856</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-11.43557535303382</v>
+        <v>-11.90034005528597</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-12.35057478290955</v>
+        <v>-12.64539773823717</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.02527293152922</v>
+        <v>11.99782526129538</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.074685769232422</v>
+        <v>6.301189585489055</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3047051468555995</v>
+        <v>1.000478847922987</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.94741056601706</v>
+        <v>11.41494163064797</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.063160687762356</v>
+        <v>5.691557443754338</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.238774319166028</v>
+        <v>1.109547299830977</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.998191945337727</v>
+        <v>9.065464341113207</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.181764985121742</v>
+        <v>2.101434026029945</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.8647345306785219</v>
+        <v>-1.125572743430854</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.1378889530459746</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2152711016445654</v>
+        <v>-0.2152711016445655</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.08387235185266681</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1486409200127049</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.2429327519170995</v>
+        <v>-0.2429327519170997</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2570784344676347</v>
+        <v>-0.2394060153097478</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4785250768782117</v>
+        <v>-0.4678281922843777</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4638714103800661</v>
+        <v>-0.4778698426705602</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.213313846006019</v>
+        <v>-0.2408031172857353</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3877277215317284</v>
+        <v>-0.399132371903124</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4067218514386494</v>
+        <v>-0.4148311108487092</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1361733318301115</v>
+        <v>-0.1567009200878332</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3756153651924448</v>
+        <v>-0.3823903074742792</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3882895710057771</v>
+        <v>-0.3967254561146512</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5137965569192577</v>
+        <v>0.4756798737261597</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2262572297637445</v>
+        <v>0.2605910349381614</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.06773624081505449</v>
+        <v>0.04481725037666479</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5359668162311462</v>
+        <v>0.4917465873856153</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2680477922947537</v>
+        <v>0.2598665543464998</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.100856972952686</v>
+        <v>0.05739921952802893</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3617198298525673</v>
+        <v>0.3624167022520293</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.08237296889769347</v>
+        <v>0.0876125522271446</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.03821472801712187</v>
+        <v>-0.0455307553209146</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-4.481076649643143</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-9.778478348669623</v>
+        <v>-9.778478348669617</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.9041145821464092</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-11.40866324632698</v>
+        <v>-10.9495045114215</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-15.11493422757417</v>
+        <v>-14.82780176785617</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-13.91213246396015</v>
+        <v>-13.53872483834936</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-8.144814871823474</v>
+        <v>-7.662045877725883</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-11.74923418022458</v>
+        <v>-12.63067749187531</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-16.66447365941911</v>
+        <v>-17.87868791718615</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-7.244489201046343</v>
+        <v>-7.190525991855715</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-11.23521411624442</v>
+        <v>-11.58594953417234</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-12.98828314324041</v>
+        <v>-13.03167348007583</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.785678442226525</v>
+        <v>6.803466840199844</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.638782004675993</v>
+        <v>2.221709045378641</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.49691023282512</v>
+        <v>2.78257686637918</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.515447095736221</v>
+        <v>8.79400472133376</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.234682761864276</v>
+        <v>3.684400786111065</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-3.178631172852386</v>
+        <v>-3.460147351402335</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.477791627286392</v>
+        <v>4.961083028551346</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.19422948708034</v>
+        <v>-0.04380174261218517</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-1.919374472601072</v>
+        <v>-2.327542287893942</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.173118377029111</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.3777740114467352</v>
+        <v>-0.3777740114467351</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.03302567565747183</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.341737763205969</v>
+        <v>-0.3300475828234909</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4511169420306155</v>
+        <v>-0.4419136783361898</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4132483758587442</v>
+        <v>-0.4036780498723429</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2600353340337969</v>
+        <v>-0.2532806100149503</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3951842904697942</v>
+        <v>-0.4103609462591757</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5539146088582336</v>
+        <v>-0.559254893025818</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2377088241426285</v>
+        <v>-0.23644075840665</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3580880580590914</v>
+        <v>-0.3748369490788338</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4190650877313042</v>
+        <v>-0.4254879628773063</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2449840166970604</v>
+        <v>0.2878554215824434</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.113740982675263</v>
+        <v>0.08485052491819976</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1588227197100993</v>
+        <v>0.1204701025811456</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4092389072184618</v>
+        <v>0.406101564534081</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1549867884012719</v>
+        <v>0.1689617509787706</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.1471681674362918</v>
+        <v>-0.1653977739509326</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1885528872428398</v>
+        <v>0.2076041395262767</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.003971722771608848</v>
+        <v>-0.001629137783622655</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.07782391907362232</v>
+        <v>-0.1036708325339837</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.203527856609142</v>
+        <v>-9.463164527229019</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.87532317841151</v>
+        <v>-4.990822064594307</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-17.09248244933019</v>
+        <v>-17.65915722818616</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-8.702642000981072</v>
+        <v>-8.731962620110334</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.496952562508075</v>
+        <v>-4.664043546305477</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-15.45973558783369</v>
+        <v>-15.02724837037241</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-7.224273829807018</v>
+        <v>-7.00917809299643</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.316770169584845</v>
+        <v>-2.186598974362558</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-14.74289453562555</v>
+        <v>-14.29166806853275</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.734227554918935</v>
+        <v>2.497435115131731</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>9.436125609265702</v>
+        <v>8.552390325535541</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-5.377622216633788</v>
+        <v>-5.642667735791526</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.318722819307355</v>
+        <v>2.318019228367515</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.670639314896411</v>
+        <v>8.241650140992281</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-5.672943086142547</v>
+        <v>-4.745432773295519</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.9385498319081746</v>
+        <v>1.005865965058483</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>6.556239517882526</v>
+        <v>6.807954675298967</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-6.827131777501622</v>
+        <v>-7.051663887149568</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.05987657092496827</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.3302953672549614</v>
+        <v>-0.3302953672549615</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.1040012079740332</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.252491189550616</v>
+        <v>-0.2605502946890401</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1084717381909335</v>
+        <v>-0.1383519814289018</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4703455132622381</v>
+        <v>-0.4831582921380126</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2613705792652194</v>
+        <v>-0.2580481450321926</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1321633216377294</v>
+        <v>-0.1345447300655723</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4457249689892644</v>
+        <v>-0.4454465940449275</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2124487977856044</v>
+        <v>-0.2060883815474241</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.06738731764818758</v>
+        <v>-0.06340147059464217</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.4225329635221418</v>
+        <v>-0.4260614730460012</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.09344257421427768</v>
+        <v>0.08405018609020794</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3053459102200352</v>
+        <v>0.2763851199350492</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1791180984179884</v>
+        <v>-0.190848255662546</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.04850815978334257</v>
+        <v>0.09007976347682793</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2635823250355044</v>
+        <v>0.2959802436610534</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.2005769784987019</v>
+        <v>-0.1787263982131629</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.03234058602087599</v>
+        <v>0.03554709992505234</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2155742116702274</v>
+        <v>0.2269041792446565</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.2275888167335555</v>
+        <v>-0.2365198941923436</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-4.402044269124433</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-20.48295117097134</v>
+        <v>-20.48295117097133</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-1.782263521509553</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.078525159472374</v>
+        <v>-3.977692057024374</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-10.03656288119395</v>
+        <v>-10.20307693050843</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-25.31285431278267</v>
+        <v>-25.44599483813802</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-7.141452289027722</v>
+        <v>-7.367681650293269</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-13.36872548516238</v>
+        <v>-13.83392453655257</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-27.83962131431187</v>
+        <v>-27.71158065448383</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-4.615706777178298</v>
+        <v>-4.028896688559279</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-10.37346623071875</v>
+        <v>-10.34769218734429</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-25.40802349475168</v>
+        <v>-25.08937650252624</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>6.545901465879536</v>
+        <v>7.086334857155589</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.7966241055212167</v>
+        <v>0.9846543477686076</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-16.25457026970434</v>
+        <v>-15.7814150588222</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.568430989722059</v>
+        <v>3.796725116864757</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-3.329574298846333</v>
+        <v>-2.661828796635131</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-19.0497749241139</v>
+        <v>-18.42993712382039</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.925474067806612</v>
+        <v>3.282215176898928</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-2.887106324636569</v>
+        <v>-2.766356015394607</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-18.97329481038299</v>
+        <v>-18.71409673575761</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.1432796767803746</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.6666881212143507</v>
+        <v>-0.6666881212143505</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.05054783229040495</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1256220983122372</v>
+        <v>-0.1224118081814562</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2956080712257937</v>
+        <v>-0.3025814952848215</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.7444040124050351</v>
+        <v>-0.7496579191645845</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1869823086497895</v>
+        <v>-0.1970954082160256</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3486868585170795</v>
+        <v>-0.3660186555390434</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.7222037514571797</v>
+        <v>-0.7186846540706534</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.129088810720456</v>
+        <v>-0.113413211740841</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2923100945745939</v>
+        <v>-0.2908311569103777</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.7156116558684953</v>
+        <v>-0.7091949923899107</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2318870566157867</v>
+        <v>0.2520331370823494</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.02917503911225406</v>
+        <v>0.03752359057455427</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.5707777096534521</v>
+        <v>-0.5687125179597069</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1446488167310638</v>
+        <v>0.117900168471274</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.1020085413099574</v>
+        <v>-0.08339104572669415</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.5867220540724014</v>
+        <v>-0.5701349134343074</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.09442711903534978</v>
+        <v>0.1046732277006949</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.08903879587787733</v>
+        <v>-0.08704168000741359</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.6043024863726763</v>
+        <v>-0.595909326730898</v>
       </c>
     </row>
     <row r="52">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-4.431451446416103</v>
+        <v>-4.531050066121172</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-6.884358817278627</v>
+        <v>-7.143879530467859</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-15.14520623956049</v>
+        <v>-15.55121199031944</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-5.570885295087091</v>
+        <v>-5.419934301786173</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-8.337218766390016</v>
+        <v>-8.284793588878841</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-16.03940418171156</v>
+        <v>-15.809237566063</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-4.396070481017814</v>
+        <v>-4.457458067038879</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-6.884174492790805</v>
+        <v>-7.097916987874162</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-14.87264625708271</v>
+        <v>-14.95466207332029</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.6532208921803567</v>
+        <v>0.6490644792560258</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-1.803086545952221</v>
+        <v>-1.885000746954974</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-10.57105947534602</v>
+        <v>-10.56367443759965</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>-0.6782223916812284</v>
+        <v>-0.7699916771361813</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-3.261033003698833</v>
+        <v>-3.339857623187615</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-11.64745283694483</v>
+        <v>-11.76281988121793</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-0.8348654801107876</v>
+        <v>-0.8297859127447724</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-3.319033760082072</v>
+        <v>-3.417472048050871</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-11.65477535053236</v>
+        <v>-11.69337366496028</v>
       </c>
     </row>
     <row r="55">
@@ -2481,7 +2481,7 @@
         <v>-0.1598316115807006</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.4159531558961403</v>
+        <v>-0.4159531558961404</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1323514682837519</v>
+        <v>-0.1368516135918759</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.2090655836877843</v>
+        <v>-0.2162627120933878</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.4539994970476093</v>
+        <v>-0.462545440489567</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.1678656987850559</v>
+        <v>-0.1648117602313452</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.247320616490924</v>
+        <v>-0.2495670769345713</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.4747241512812932</v>
+        <v>-0.4737464253781603</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.132706369114582</v>
+        <v>-0.133745954253982</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.2085361489047612</v>
+        <v>-0.2130528404974925</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.451151344229806</v>
+        <v>-0.4536850077575258</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.02120507451889574</v>
+        <v>0.02167402135809042</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.06125592089980567</v>
+        <v>-0.06163309620806892</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.3382795009391822</v>
+        <v>-0.3423307704972495</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>-0.02323923760511419</v>
+        <v>-0.0273170683200047</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.1039177327365594</v>
+        <v>-0.1090918992318761</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.3774862900978021</v>
+        <v>-0.3817588881797879</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.02695796223883939</v>
+        <v>-0.02667616597600722</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.1067899962718363</v>
+        <v>-0.1095009070259526</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.3733014111305347</v>
+        <v>-0.3754570271018874</v>
       </c>
     </row>
     <row r="58">
